--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\LootingZombie\config\lootingzombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52100942-D82B-4003-B3CF-D0B0EF53BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F871061-2597-450E-A5CD-6C813ADF07D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3190" yWindow="3570" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="monthCard" sheetId="1" r:id="rId1"/>
+    <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>排序</t>
   </si>
@@ -78,11 +78,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icon_mothCard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>month_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_card_desc1;ad_card_desc2;ad_card_desc3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ad_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_moth_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -482,11 +514,13 @@
     <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
@@ -499,12 +533,17 @@
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -517,12 +556,17 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -535,12 +579,17 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -553,16 +602,54 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F871061-2597-450E-A5CD-6C813ADF07D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B686171-1DA2-4EBD-B152-AF05AB6A8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3190" yWindow="3570" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
@@ -504,22 +504,22 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.4140625" customWidth="1"/>
-    <col min="4" max="4" width="47.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -537,7 +537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B686171-1DA2-4EBD-B152-AF05AB6A8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E8E1B-072D-41F8-A949-6187FCAE0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
@@ -504,17 +504,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.4140625" customWidth="1"/>
+    <col min="4" max="4" width="47.4140625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -537,7 +537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E8E1B-072D-41F8-A949-6187FCAE0D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E02B53-64B0-4DDC-90BB-F4801B06D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>排序</t>
   </si>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>descPara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -219,6 +227,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -501,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.4140625" customWidth="1"/>
-    <col min="4" max="4" width="47.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="3" max="4" width="31.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.4140625" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -525,19 +536,22 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -548,19 +562,22 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -579,11 +596,14 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,16 +617,19 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -616,20 +639,23 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>101102102</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -639,16 +665,19 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>101101102</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>68</v>
       </c>
     </row>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E02B53-64B0-4DDC-90BB-F4801B06D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001985-35DB-4462-A54E-077A25A4C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>排序</t>
   </si>
@@ -122,8 +122,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>array_int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>array2_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1000|102;100|102;5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1000|102;100|102;5001</t>
   </si>
 </sst>
 </file>
@@ -515,7 +522,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -639,8 +646,8 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
-        <v>101102102</v>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -665,8 +672,8 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>101101102</v>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001985-35DB-4462-A54E-077A25A4C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB44173C-2E07-4798-B3B0-59CAC9433B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4550" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
+    <sheet name="heroBox|英雄盲盒" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>许天盈</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{5240109E-CD80-4F76-BEDD-789BD4AC9023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>许天盈:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-3为常驻盲盒
+后面的编号是现时活动开</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>排序</t>
   </si>
@@ -131,13 +169,72 @@
   </si>
   <si>
     <t>101;1000|102;100|102;5001</t>
+  </si>
+  <si>
+    <t>normal_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_normal_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rare_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_advanced_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_box_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced_box_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare_box_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price2</t>
+  </si>
+  <si>
+    <t>limit1_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit1_box_desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_limit1_box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +261,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -521,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -692,4 +804,234 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F708FA36-9C93-4DDB-BD58-F6BAF52EC2B3}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.4140625" customWidth="1"/>
+    <col min="4" max="4" width="47.4140625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB44173C-2E07-4798-B3B0-59CAC9433B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31DC496-BF02-476A-A0AC-A683E2E858C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4550" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
@@ -633,18 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="31.4140625" customWidth="1"/>
-    <col min="5" max="5" width="47.4140625" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="3" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,56 +748,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -810,18 +810,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F708FA36-9C93-4DDB-BD58-F6BAF52EC2B3}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.4140625" customWidth="1"/>
-    <col min="4" max="4" width="47.4140625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -847,7 +847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -873,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -977,7 +977,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>

--- a/config/JuiceZombie/shop.xlsx
+++ b/config/JuiceZombie/shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\JuiceZombies\config\JuiceZombie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31DC496-BF02-476A-A0AC-A683E2E858C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FAE8D8-E698-454D-A11D-EB2D8D828271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthCard|月卡" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{525B3588-59A5-4BFB-BF76-82E9AFF1D0CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>许天盈:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+表示道具id为501的道具的概率为80%，道具id为201的道具的概率为15%，剩下的则是
+100-80-15=5%的概率开出整个英雄</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>排序</t>
   </si>
@@ -227,6 +254,38 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十连抽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;80|201;15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;60|201;25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;40|201;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;0|201;80</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,18 +692,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="3" max="4" width="31.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.4140625" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -670,7 +729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -696,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -722,7 +781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -774,7 +833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -808,20 +867,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F708FA36-9C93-4DDB-BD58-F6BAF52EC2B3}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.4140625" customWidth="1"/>
+    <col min="4" max="4" width="47.4140625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -846,8 +905,14 @@
       <c r="H1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -872,8 +937,14 @@
       <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -898,8 +969,14 @@
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -924,8 +1001,14 @@
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -950,8 +1033,14 @@
       <c r="H5">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -976,8 +1065,14 @@
       <c r="H6">
         <v>590</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1002,8 +1097,14 @@
       <c r="H7">
         <v>890</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1027,6 +1128,12 @@
       </c>
       <c r="H8">
         <v>800</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
